--- a/data_year/zb/价格指数/城市居民消费价格分类指数(上年=100)(-2015)/娱乐教育文化用品及服务类城市居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/城市居民消费价格分类指数(上年=100)(-2015)/娱乐教育文化用品及服务类城市居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,576 +488,212 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.9</v>
+        <v>100.5</v>
       </c>
       <c r="C2" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>100.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>101</v>
+      </c>
       <c r="E2" t="n">
-        <v>106.6</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>102.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>101.2</v>
+      </c>
       <c r="G2" t="n">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>102.1</v>
+        <v>101</v>
       </c>
       <c r="I2" t="n">
-        <v>91.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>110.1</v>
-      </c>
-      <c r="K2" t="inlineStr"/>
+        <v>102.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102</v>
+        <v>100.97161414</v>
       </c>
       <c r="C3" t="n">
-        <v>106.7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>117.5</v>
-      </c>
+        <v>100.2573608</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>105.8</v>
+        <v>101.14321325</v>
       </c>
       <c r="F3" t="n">
-        <v>116.5</v>
+        <v>101.2099919</v>
       </c>
       <c r="G3" t="n">
-        <v>99.40000000000001</v>
+        <v>100.50940699</v>
       </c>
       <c r="H3" t="n">
-        <v>102.2</v>
+        <v>101.13465774</v>
       </c>
       <c r="I3" t="n">
-        <v>89.8</v>
+        <v>92.96337343</v>
       </c>
       <c r="J3" t="n">
-        <v>105</v>
+        <v>101.59158776</v>
       </c>
       <c r="K3" t="n">
-        <v>100.3</v>
+        <v>103.8417951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>101.1</v>
+        <v>101.44287816</v>
       </c>
       <c r="C4" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>104.5</v>
-      </c>
+        <v>100.37807042</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>99.5</v>
+        <v>101.67332975</v>
       </c>
       <c r="F4" t="n">
-        <v>104.1</v>
+        <v>101.65912587</v>
       </c>
       <c r="G4" t="n">
-        <v>98.90000000000001</v>
+        <v>100.30211505</v>
       </c>
       <c r="H4" t="n">
-        <v>101.6</v>
+        <v>101.31529674</v>
       </c>
       <c r="I4" t="n">
-        <v>89.5</v>
+        <v>93.99837361</v>
       </c>
       <c r="J4" t="n">
-        <v>104.5</v>
+        <v>101.90806997</v>
       </c>
       <c r="K4" t="n">
-        <v>95.90000000000001</v>
+        <v>101.44039552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100.547</v>
+        <v>101.00389446</v>
       </c>
       <c r="C5" t="n">
-        <v>100.52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>104.1129</v>
-      </c>
+        <v>101.7</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>101.9904</v>
+        <v>102.17221877</v>
       </c>
       <c r="F5" t="n">
-        <v>103.9481</v>
+        <v>102.8</v>
       </c>
       <c r="G5" t="n">
-        <v>98.70310000000001</v>
+        <v>100.09975879</v>
       </c>
       <c r="H5" t="n">
-        <v>101.6902</v>
+        <v>101.3</v>
       </c>
       <c r="I5" t="n">
-        <v>91.9906</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>104.9842</v>
+        <v>102.24574819</v>
       </c>
       <c r="K5" t="n">
-        <v>95.102</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100.4918</v>
+        <v>101.77877926</v>
       </c>
       <c r="C6" t="n">
-        <v>100.8132</v>
-      </c>
-      <c r="D6" t="n">
-        <v>103.1719</v>
-      </c>
+        <v>101.9</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>102.4967</v>
+        <v>101.26309022</v>
       </c>
       <c r="F6" t="n">
-        <v>103.1215</v>
+        <v>102.6</v>
       </c>
       <c r="G6" t="n">
-        <v>99.4435</v>
+        <v>100.19870259</v>
       </c>
       <c r="H6" t="n">
-        <v>101.317</v>
+        <v>101.3</v>
       </c>
       <c r="I6" t="n">
-        <v>92.62050000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>103.5082</v>
+        <v>101.78793225</v>
       </c>
       <c r="K6" t="n">
-        <v>100.819</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>100.7804</v>
+        <v>105.8865908</v>
       </c>
       <c r="C7" t="n">
-        <v>101.2942</v>
-      </c>
-      <c r="D7" t="n">
-        <v>104.6612</v>
-      </c>
+        <v>101.4494726</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>100.9464</v>
+        <v>101.1228742</v>
       </c>
       <c r="F7" t="n">
-        <v>104.3455</v>
+        <v>102.88675664</v>
       </c>
       <c r="G7" t="n">
-        <v>99.7869</v>
+        <v>100.18944755</v>
       </c>
       <c r="H7" t="n">
-        <v>101.3365</v>
+        <v>101.85299073</v>
       </c>
       <c r="I7" t="n">
-        <v>92.87390000000001</v>
+        <v>98.27544201000001</v>
       </c>
       <c r="J7" t="n">
-        <v>103.0487</v>
+        <v>101.42802932</v>
       </c>
       <c r="K7" t="n">
-        <v>99.3943</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>100.73606198</v>
-      </c>
-      <c r="C8" t="n">
-        <v>99.97971421</v>
-      </c>
-      <c r="D8" t="n">
-        <v>101.00546474</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100.67622133</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100.97409582</v>
-      </c>
-      <c r="G8" t="n">
-        <v>99.54469389</v>
-      </c>
-      <c r="H8" t="n">
-        <v>101.0957452</v>
-      </c>
-      <c r="I8" t="n">
-        <v>93.24828509</v>
-      </c>
-      <c r="J8" t="n">
-        <v>102.52691851</v>
-      </c>
-      <c r="K8" t="n">
-        <v>103.31275355</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>100.6806309</v>
-      </c>
-      <c r="C9" t="n">
-        <v>99.28726742000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100.48261815</v>
-      </c>
-      <c r="E9" t="n">
-        <v>99.62314522</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100.40093658</v>
-      </c>
-      <c r="G9" t="n">
-        <v>99.17130782</v>
-      </c>
-      <c r="H9" t="n">
-        <v>101.06163667</v>
-      </c>
-      <c r="I9" t="n">
-        <v>91.76186774999999</v>
-      </c>
-      <c r="J9" t="n">
-        <v>102.72865936</v>
-      </c>
-      <c r="K9" t="n">
-        <v>102.08748335</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>102.49340098</v>
-      </c>
-      <c r="C10" t="n">
-        <v>99.08013585</v>
-      </c>
-      <c r="D10" t="n">
-        <v>100.3190319</v>
-      </c>
-      <c r="E10" t="n">
-        <v>100.72838148</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100.36489294</v>
-      </c>
-      <c r="G10" t="n">
-        <v>99.39445831</v>
-      </c>
-      <c r="H10" t="n">
-        <v>101.30723401</v>
-      </c>
-      <c r="I10" t="n">
-        <v>91.08238572</v>
-      </c>
-      <c r="J10" t="n">
-        <v>102.20138733</v>
-      </c>
-      <c r="K10" t="n">
-        <v>101.12672269</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>108.70750029</v>
-      </c>
-      <c r="C11" t="n">
-        <v>98.75948617</v>
-      </c>
-      <c r="D11" t="n">
-        <v>100.89719797</v>
-      </c>
-      <c r="E11" t="n">
-        <v>103.16655986</v>
-      </c>
-      <c r="F11" t="n">
-        <v>101.12725538</v>
-      </c>
-      <c r="G11" t="n">
-        <v>99.56796004</v>
-      </c>
-      <c r="H11" t="n">
-        <v>102.67418126</v>
-      </c>
-      <c r="I11" t="n">
-        <v>89.34851213</v>
-      </c>
-      <c r="J11" t="n">
-        <v>102.16437276</v>
-      </c>
-      <c r="K11" t="n">
-        <v>97.25467374</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>100.5</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>101</v>
-      </c>
-      <c r="E12" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="G12" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>101</v>
-      </c>
-      <c r="I12" t="n">
-        <v>93.59999999999999</v>
-      </c>
-      <c r="J12" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>100.97161414</v>
-      </c>
-      <c r="C13" t="n">
-        <v>100.2573608</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>101.14321325</v>
-      </c>
-      <c r="F13" t="n">
-        <v>101.2099919</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100.50940699</v>
-      </c>
-      <c r="H13" t="n">
-        <v>101.13465774</v>
-      </c>
-      <c r="I13" t="n">
-        <v>92.96337343</v>
-      </c>
-      <c r="J13" t="n">
-        <v>101.59158776</v>
-      </c>
-      <c r="K13" t="n">
-        <v>103.8417951</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>101.44287816</v>
-      </c>
-      <c r="C14" t="n">
-        <v>100.37807042</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>101.67332975</v>
-      </c>
-      <c r="F14" t="n">
-        <v>101.65912587</v>
-      </c>
-      <c r="G14" t="n">
-        <v>100.30211505</v>
-      </c>
-      <c r="H14" t="n">
-        <v>101.31529674</v>
-      </c>
-      <c r="I14" t="n">
-        <v>93.99837361</v>
-      </c>
-      <c r="J14" t="n">
-        <v>101.90806997</v>
-      </c>
-      <c r="K14" t="n">
-        <v>101.44039552</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>101.00389446</v>
-      </c>
-      <c r="C15" t="n">
-        <v>101.7</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>102.17221877</v>
-      </c>
-      <c r="F15" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>100.09975879</v>
-      </c>
-      <c r="H15" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="J15" t="n">
-        <v>102.24574819</v>
-      </c>
-      <c r="K15" t="n">
-        <v>103.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>101.77877926</v>
-      </c>
-      <c r="C16" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>101.26309022</v>
-      </c>
-      <c r="F16" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>100.19870259</v>
-      </c>
-      <c r="H16" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="J16" t="n">
-        <v>101.78793225</v>
-      </c>
-      <c r="K16" t="n">
-        <v>104.8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>105.8865908</v>
-      </c>
-      <c r="C17" t="n">
-        <v>101.4494726</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>101.1228742</v>
-      </c>
-      <c r="F17" t="n">
-        <v>102.88675664</v>
-      </c>
-      <c r="G17" t="n">
-        <v>100.18944755</v>
-      </c>
-      <c r="H17" t="n">
-        <v>101.85299073</v>
-      </c>
-      <c r="I17" t="n">
-        <v>98.27544201000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>101.42802932</v>
-      </c>
-      <c r="K17" t="n">
         <v>99.27395385</v>
       </c>
     </row>
